--- a/data/income_statement/3digits/total/856_IS_TOTAL.xlsx
+++ b/data/income_statement/3digits/total/856_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>856-Educational support activities</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>856-Educational support activities</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,14 +841,19 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
         <v>23066.76869</v>
@@ -956,37 +862,42 @@
         <v>25160.62405</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>41393.3193</v>
+        <v>41466.7981</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>73249.12117</v>
+        <v>73481.30873999999</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>141500.21283</v>
+        <v>141744.44159</v>
       </c>
       <c r="H5" s="47" t="n">
         <v>246967.31791</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>318943.68067</v>
+        <v>321503.64011</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>350010.49943</v>
+        <v>351913.45429</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>549745.89404</v>
+        <v>549745.8940399999</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>898783.5738799999</v>
+        <v>902684.2648400001</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>1361960.0447</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>1373208.22366</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>1283418.401</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
         <v>18063.12322</v>
@@ -995,37 +906,42 @@
         <v>18779.49922</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>29539.40164</v>
+        <v>29612.88044</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>60378.94076</v>
+        <v>60597.26693999999</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>120186.08723</v>
+        <v>120427.90474</v>
       </c>
       <c r="H6" s="48" t="n">
         <v>195640.79391</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>268807.7442</v>
+        <v>270975.46446</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>305240.76133</v>
+        <v>307002.94388</v>
       </c>
       <c r="K6" s="48" t="n">
         <v>477141.92823</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>776339.77306</v>
+        <v>779040.8249700001</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>1234622.04965</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>1245422.6566</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>1189451.169</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>4043.53197</v>
@@ -1046,25 +962,30 @@
         <v>30799.37508</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>25184.13785</v>
+        <v>25463.53317</v>
       </c>
       <c r="J7" s="48" t="n">
         <v>36820.40672</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>57816.97547999999</v>
+        <v>57816.97548</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>108570.28619</v>
+        <v>109742.90048</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>99746.81817000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>100015.30218</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>60927.51</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>960.1135</v>
@@ -1076,34 +997,39 @@
         <v>1155.03291</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>1715.60548</v>
+        <v>1729.46687</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>2155.98217</v>
+        <v>2158.39342</v>
       </c>
       <c r="H8" s="48" t="n">
         <v>20527.14892</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>24951.79862</v>
+        <v>25064.64248</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>7949.33138</v>
+        <v>8090.10369</v>
       </c>
       <c r="K8" s="48" t="n">
         <v>14786.99033</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>13873.51463</v>
+        <v>13900.53939</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>27591.17688</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>27770.26488</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>33039.722</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>280.06055</v>
@@ -1136,13 +1062,18 @@
         <v>81515.13373999999</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>226244.31699</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>226283.91168</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>262429.219</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>161.98284</v>
@@ -1175,13 +1106,18 @@
         <v>10701.50384</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>31109.47315</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>31147.96784</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>37299.692</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>118.07771</v>
@@ -1214,13 +1150,18 @@
         <v>70620.41051999999</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>192820.27713</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>192821.37713</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>222316.392</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>0</v>
@@ -1255,11 +1196,16 @@
       <c r="M12" s="48" t="n">
         <v>2314.56671</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12" s="48" t="n">
+        <v>2813.135</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
         <v>22786.70814</v>
@@ -1268,37 +1214,42 @@
         <v>25059.18547</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>41287.96741</v>
+        <v>41361.44621</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>73036.91454</v>
+        <v>73269.10210999999</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>140519.48528</v>
+        <v>140763.71404</v>
       </c>
       <c r="H13" s="47" t="n">
         <v>246066.60606</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>318319.50041</v>
+        <v>320879.45985</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>345780.72954</v>
+        <v>347683.6844</v>
       </c>
       <c r="K13" s="47" t="n">
         <v>537879.1013199999</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>817268.4401399998</v>
+        <v>821169.1311</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>1135715.72771</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>1146924.31198</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>1020989.182</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
         <v>13183.75687</v>
@@ -1307,37 +1258,42 @@
         <v>14287.65917</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>24588.11837</v>
+        <v>24626.42354</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>49482.94568</v>
+        <v>49579.4355</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>95266.53437000001</v>
+        <v>95471.31950999999</v>
       </c>
       <c r="H14" s="47" t="n">
         <v>151067.02942</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>196882.17555</v>
+        <v>198973.18151</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>221727.19728</v>
+        <v>223287.11991</v>
       </c>
       <c r="K14" s="47" t="n">
         <v>355716.71878</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>547545.7590600001</v>
+        <v>550872.8654199999</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>831063.7380199999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>838683.50418</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>642429.206</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>534.0107800000001</v>
@@ -1361,22 +1317,27 @@
         <v>4600.883859999999</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>4256.50387</v>
+        <v>4261.50387</v>
       </c>
       <c r="K15" s="48" t="n">
         <v>20797.70618</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>45200.96019</v>
+        <v>45201.03654</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>90166.76441</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>90901.387</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>99742.01300000001</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>1336.78296</v>
@@ -1385,10 +1346,10 @@
         <v>885.66205</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>2635.44388</v>
+        <v>2644.26999</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>6466.298470000001</v>
+        <v>6468.16686</v>
       </c>
       <c r="G16" s="48" t="n">
         <v>11937.66206</v>
@@ -1400,22 +1361,27 @@
         <v>14456.68601</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>23286.96997</v>
+        <v>23544.92455</v>
       </c>
       <c r="K16" s="48" t="n">
         <v>43476.91391</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>89120.91843000001</v>
+        <v>89176.23365000001</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>196006.0373</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>198390.33865</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>98057.518</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>11307.45308</v>
@@ -1424,37 +1390,42 @@
         <v>13206.83136</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>21658.56551</v>
+        <v>21688.04457</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>42509.38969</v>
+        <v>42604.01112</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>81142.21846999999</v>
+        <v>81347.00361</v>
       </c>
       <c r="H17" s="48" t="n">
         <v>129319.71315</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>177419.36164</v>
+        <v>179388.67814</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>192827.16778</v>
+        <v>193967.47095</v>
       </c>
       <c r="K17" s="48" t="n">
         <v>290049.51123</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>408145.48115</v>
+        <v>411412.29594</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>539726.8084399999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>544069.1506599999</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>439652.55</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>5.510050000000001</v>
@@ -1475,25 +1446,30 @@
         <v>228.94253</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>405.24404</v>
+        <v>526.9335</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>1356.55566</v>
+        <v>1513.22054</v>
       </c>
       <c r="K18" s="48" t="n">
         <v>1392.58746</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>5078.39929</v>
+        <v>5083.29929</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>5164.127870000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>5322.627869999999</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>4977.125</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
         <v>9602.95127</v>
@@ -1502,37 +1478,42 @@
         <v>10771.5263</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>16699.84904</v>
+        <v>16735.02267</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>23553.96886</v>
+        <v>23689.66661</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>45252.95091000001</v>
+        <v>45292.39453</v>
       </c>
       <c r="H19" s="47" t="n">
         <v>94999.57664</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>121437.32486</v>
+        <v>121906.27834</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>124053.53226</v>
+        <v>124396.56449</v>
       </c>
       <c r="K19" s="47" t="n">
         <v>182162.38254</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>269722.68108</v>
+        <v>270296.26568</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>304651.98969</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>308240.8078</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>378559.976</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
         <v>9285.66216</v>
@@ -1541,37 +1522,42 @@
         <v>9604.49446</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>16856.07218</v>
+        <v>16883.92475</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>27546.29528</v>
+        <v>27594.51147</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>49615.93721</v>
+        <v>49644.83542</v>
       </c>
       <c r="H20" s="47" t="n">
         <v>95052.69885</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>110564.20155</v>
+        <v>112018.37191</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>129548.74087</v>
+        <v>130080.38799</v>
       </c>
       <c r="K20" s="47" t="n">
         <v>179752.94969</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>233734.16394</v>
+        <v>235618.04944</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>296965.33965</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>304545.41825</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>305414.065</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>122.27268</v>
@@ -1606,11 +1592,16 @@
       <c r="M21" s="48" t="n">
         <v>409.21248</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="48" t="n">
+        <v>107.303</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>867.65935</v>
@@ -1619,13 +1610,13 @@
         <v>925.9220700000001</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>1285.36686</v>
+        <v>1285.61105</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>2489.11114</v>
+        <v>2503.8036</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>5285.24267</v>
+        <v>5290.242730000001</v>
       </c>
       <c r="H22" s="48" t="n">
         <v>13054.66344</v>
@@ -1634,61 +1625,71 @@
         <v>15408.99572</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>26690.67002000001</v>
+        <v>26690.67002</v>
       </c>
       <c r="K22" s="48" t="n">
         <v>16300.24035</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>43802.88443000001</v>
+        <v>43942.40427000001</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>50565.72301</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>51124.99085</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>48677.784</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>8295.73013</v>
+        <v>8295.730129999998</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>8674.703879999999</v>
+        <v>8674.703880000001</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>15484.79262</v>
+        <v>15512.401</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>24891.78312</v>
+        <v>24925.30685</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>44135.96591000001</v>
+        <v>44159.86406</v>
       </c>
       <c r="H23" s="48" t="n">
         <v>81777.95666</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>94475.21329</v>
+        <v>95929.38364999999</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>102823.80514</v>
+        <v>103355.45226</v>
       </c>
       <c r="K23" s="48" t="n">
         <v>163385.71273</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>189864.88679</v>
+        <v>191609.25245</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>245990.40416</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>253011.21492</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>256628.978</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
         <v>317.28911</v>
@@ -1697,37 +1698,42 @@
         <v>1167.03184</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>-156.22314</v>
+        <v>-148.9020800000001</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>-3992.32642</v>
+        <v>-3904.84486</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>-4362.9863</v>
+        <v>-4352.44089</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>-53.12221000000089</v>
+        <v>-53.12220999999996</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>10873.12331</v>
+        <v>9887.906429999999</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>-5495.208610000001</v>
+        <v>-5683.8235</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>2409.432850000001</v>
+        <v>2409.432849999999</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>35988.51714</v>
+        <v>34678.21624</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>7686.650039999996</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>3695.389550000001</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>73145.91099999999</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>539.53761</v>
@@ -1736,37 +1742,42 @@
         <v>398.53164</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>689.40422</v>
+        <v>689.40427</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>851.3353099999999</v>
+        <v>851.3401300000002</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>3448.12629</v>
+        <v>3448.18283</v>
       </c>
       <c r="H25" s="47" t="n">
         <v>4030.95837</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>5606.62307</v>
+        <v>5623.90022</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>7174.521049999999</v>
+        <v>7182.71038</v>
       </c>
       <c r="K25" s="47" t="n">
         <v>15232.49632</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>28894.95516</v>
+        <v>29234.77457</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>28671.41361</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>28909.7916</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>47603.013</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>0</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>0.00016</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>0</v>
@@ -1840,11 +1856,16 @@
       <c r="M27" s="48" t="n">
         <v>170.8375</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>629.9829999999999</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>138.9399</v>
@@ -1856,7 +1877,7 @@
         <v>173.88058</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>372.25878</v>
+        <v>372.2587799999999</v>
       </c>
       <c r="G28" s="48" t="n">
         <v>723.41874</v>
@@ -1868,22 +1889,27 @@
         <v>1104.75437</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>1720.6956</v>
+        <v>1722.61478</v>
       </c>
       <c r="K28" s="48" t="n">
         <v>5587.2539</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>5598.49844</v>
+        <v>5628.868449999999</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>6083.76455</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>6159.4683</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>8836.477999999999</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>23.98705</v>
@@ -1916,13 +1942,18 @@
         <v>644.89376</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>1843.01439</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>1843.01527</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>467.393</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>0</v>
@@ -1957,11 +1988,16 @@
       <c r="M30" s="48" t="n">
         <v>48.35935</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>539.998</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>18.84793</v>
@@ -1985,7 +2021,7 @@
         <v>196.15248</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>72.14091000000001</v>
+        <v>72.13615</v>
       </c>
       <c r="K31" s="48" t="n">
         <v>81.61991</v>
@@ -1996,11 +2032,16 @@
       <c r="M31" s="48" t="n">
         <v>1241.0064</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" s="48" t="n">
+        <v>2439.626</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>284.51982</v>
@@ -2015,13 +2056,13 @@
         <v>160.21553</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>1483.60286</v>
+        <v>1483.6594</v>
       </c>
       <c r="H32" s="48" t="n">
         <v>1347.75729</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>2745.82328</v>
+        <v>2763.10043</v>
       </c>
       <c r="J32" s="48" t="n">
         <v>3128.09627</v>
@@ -2030,16 +2071,21 @@
         <v>4362.76054</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>15878.10307</v>
+        <v>16173.53074</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>9386.468210000001</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>9406.60974</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>15643.336</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>43.30429</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>4208.476830000001</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>11193.471</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0</v>
@@ -2113,11 +2164,16 @@
       <c r="M34" s="48" t="n">
         <v>28.31735</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>29.93862</v>
@@ -2126,76 +2182,86 @@
         <v>65.13954</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>14.67298</v>
+        <v>14.67303</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>214.61677</v>
+        <v>214.62159</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>587.83072</v>
+        <v>587.8307199999999</v>
       </c>
       <c r="H35" s="48" t="n">
         <v>814.63699</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>787.8576</v>
+        <v>787.8575999999999</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>1444.53507</v>
+        <v>1450.80998</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>4437.678110000001</v>
+        <v>4437.67811</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>4606.74289</v>
+        <v>4620.76462</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>5661.168870000001</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>5803.700699999999</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>7852.728</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>382.9469100000001</v>
+        <v>382.94691</v>
       </c>
       <c r="D36" s="47" t="n">
         <v>210.0636</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>389.5632199999999</v>
+        <v>389.56369</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>316.57126</v>
+        <v>316.57615</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>1207.45625</v>
+        <v>1207.83645</v>
       </c>
       <c r="H36" s="47" t="n">
         <v>2726.21971</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>2359.01154</v>
+        <v>2368.78136</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>2777.42642</v>
+        <v>2777.59439</v>
       </c>
       <c r="K36" s="47" t="n">
         <v>12789.75769</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>27426.37219</v>
+        <v>27477.10189000001</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>15949.40096</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>16012.04323</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>27350.645</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>8.821729999999999</v>
@@ -2216,7 +2282,7 @@
         <v>30.73081</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>50.73193</v>
+        <v>50.91897</v>
       </c>
       <c r="J37" s="48" t="n">
         <v>25.68739</v>
@@ -2228,13 +2294,18 @@
         <v>408.12851</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>424.31389</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>433.0654499999999</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>1094.436</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>46.964</v>
@@ -2269,11 +2340,16 @@
       <c r="M38" s="48" t="n">
         <v>3608.97323</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" s="48" t="n">
+        <v>954.365</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>33.84486</v>
@@ -2308,14 +2384,19 @@
       <c r="M39" s="48" t="n">
         <v>52.75563</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>358.963</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>284.58706</v>
+        <v>284.5870600000001</v>
       </c>
       <c r="D40" s="48" t="n">
         <v>136.79652</v>
@@ -2327,13 +2408,13 @@
         <v>252.0128</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>961.93396</v>
+        <v>962.3141599999999</v>
       </c>
       <c r="H40" s="48" t="n">
         <v>2261.30658</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>1641.35595</v>
+        <v>1650.93873</v>
       </c>
       <c r="J40" s="48" t="n">
         <v>2404.73029</v>
@@ -2342,16 +2423,21 @@
         <v>3584.84483</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>20437.87807</v>
+        <v>20453.93045</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>5157.723440000001</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>5205.10407</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>8572.629000000001</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>0</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>4393.15346</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>11399.237</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2425,11 +2516,16 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>8.72926</v>
@@ -2438,10 +2534,10 @@
         <v>11.38041</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>22.34667</v>
+        <v>22.34714</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>29.47862</v>
+        <v>29.48351</v>
       </c>
       <c r="G43" s="48" t="n">
         <v>101.27576</v>
@@ -2453,22 +2549,27 @@
         <v>39.24168</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>295.25151</v>
+        <v>295.41948</v>
       </c>
       <c r="K43" s="48" t="n">
         <v>1104.44563</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>1531.74689</v>
+        <v>1566.42421</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>2312.48131</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>2318.99139</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>4971.015</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
         <v>407.4606700000001</v>
@@ -2483,31 +2584,36 @@
         <v>569.2504099999999</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>889.99482</v>
+        <v>894.53812</v>
       </c>
       <c r="H44" s="47" t="n">
         <v>4112.40886</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>5624.10317</v>
+        <v>5632.96333</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>6432.53592</v>
+        <v>6554.11649</v>
       </c>
       <c r="K44" s="47" t="n">
         <v>10438.30199</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>80599.56315</v>
+        <v>80600.38665999999</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>66199.49734999999</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>66385.19730999999</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>70147.819</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>406.65527</v>
@@ -2522,31 +2628,36 @@
         <v>557.93512</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>884.69875</v>
+        <v>889.2420500000001</v>
       </c>
       <c r="H45" s="48" t="n">
         <v>4108.29846</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>5601.34072</v>
+        <v>5607.402829999999</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>6396.9427</v>
+        <v>6518.523270000001</v>
       </c>
       <c r="K45" s="48" t="n">
         <v>10371.79273</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>20686.62104</v>
+        <v>20687.44455</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>30006.91663</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>30192.61659000001</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>21898.269</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>0.8054</v>
@@ -2567,13 +2678,13 @@
         <v>4.110399999999999</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>22.76245</v>
+        <v>25.5605</v>
       </c>
       <c r="J46" s="48" t="n">
         <v>35.59322</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>66.50926000000001</v>
+        <v>66.50926</v>
       </c>
       <c r="L46" s="48" t="n">
         <v>59912.94211</v>
@@ -2581,50 +2692,60 @@
       <c r="M46" s="48" t="n">
         <v>36192.58072</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="N46" s="48" t="n">
+        <v>48249.55</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>66.41913999999998</v>
+        <v>66.41914000000001</v>
       </c>
       <c r="D47" s="47" t="n">
         <v>1178.63048</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>-254.71894</v>
+        <v>-247.3983</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>-4026.81278</v>
+        <v>-3939.33129</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>-3012.31108</v>
+        <v>-3006.632630000001</v>
       </c>
       <c r="H47" s="47" t="n">
         <v>-2860.79241</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>8496.631670000002</v>
+        <v>7510.061959999998</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>-7530.649899999999</v>
+        <v>-7832.824000000001</v>
       </c>
       <c r="K47" s="47" t="n">
         <v>-5586.13051</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>-43142.46304</v>
+        <v>-44164.49774</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>-45790.83466</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>-49792.05939</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>23250.46</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>103.66846</v>
@@ -2636,34 +2757,39 @@
         <v>394.06879</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>662.0830800000001</v>
+        <v>662.08308</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>613.9712500000001</v>
+        <v>613.9715200000001</v>
       </c>
       <c r="H48" s="47" t="n">
         <v>1377.21924</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>1383.41783</v>
+        <v>1383.4216</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>2079.38086</v>
+        <v>2134.23642</v>
       </c>
       <c r="K48" s="47" t="n">
         <v>4824.73357</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>8785.228939999999</v>
+        <v>8869.143689999999</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>10716.26863</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>10743.43538</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>12952.239</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>1.76979</v>
@@ -2698,11 +2824,16 @@
       <c r="M49" s="48" t="n">
         <v>1425.17813</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" s="48" t="n">
+        <v>62.199</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>101.89867</v>
@@ -2711,37 +2842,42 @@
         <v>140.66614</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>394.0687799999999</v>
+        <v>394.06878</v>
       </c>
       <c r="F50" s="48" t="n">
         <v>546.40675</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>555.8551</v>
+        <v>555.85537</v>
       </c>
       <c r="H50" s="48" t="n">
         <v>1365.42698</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>1383.41485</v>
+        <v>1383.41862</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>2048.41326</v>
+        <v>2103.26882</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>4786.963180000001</v>
+        <v>4786.96318</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>8282.88308</v>
+        <v>8366.79783</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>9291.0905</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>9318.257250000001</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>12890.04</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>145.87819</v>
@@ -2753,34 +2889,39 @@
         <v>3063.94436</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>854.8291599999999</v>
+        <v>871.0791599999999</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>1224.60338</v>
+        <v>1225.9876</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>9573.99819</v>
+        <v>9573.998190000002</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>2725.96858</v>
+        <v>2727.86193</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>7820.818679999999</v>
+        <v>7856.94777</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>4469.085849999999</v>
+        <v>4469.08585</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>16061.1647</v>
+        <v>16065.61407</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>8680.65446</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>9024.22803</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>26436.784</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>0</v>
@@ -2807,7 +2948,7 @@
         <v>300.99103</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>325.0198799999999</v>
+        <v>325.01988</v>
       </c>
       <c r="L52" s="48" t="n">
         <v>68.346</v>
@@ -2815,11 +2956,16 @@
       <c r="M52" s="48" t="n">
         <v>0.7775700000000001</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>918.822</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>0.5599000000000001</v>
@@ -2852,13 +2998,18 @@
         <v>442.2369</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>1997.56971</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>2286.70451</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>977.456</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>145.31829</v>
@@ -2870,94 +3021,104 @@
         <v>3063.5777</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>839.3083200000001</v>
+        <v>855.5583200000001</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>1077.45016</v>
+        <v>1078.83438</v>
       </c>
       <c r="H54" s="48" t="n">
         <v>9503.81259</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>2546.43165</v>
+        <v>2548.325</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>7435.19232</v>
+        <v>7471.32141</v>
       </c>
       <c r="K54" s="48" t="n">
         <v>4053.51325</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>15550.5818</v>
+        <v>15555.03117</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>6682.30718</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>6736.74595</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>24540.506</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>24.20940999999997</v>
+        <v>24.20941000000003</v>
       </c>
       <c r="D55" s="47" t="n">
         <v>1127.57698</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-2924.59451</v>
+        <v>-2917.27387</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>-4219.558859999999</v>
+        <v>-4148.32737</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>-3622.94321</v>
+        <v>-3618.64871</v>
       </c>
       <c r="H55" s="47" t="n">
         <v>-11057.57136</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>7154.080919999999</v>
+        <v>6165.621629999999</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-13272.08772</v>
+        <v>-13555.53535</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>-5230.482790000001</v>
+        <v>-5230.48279</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>-50418.3988</v>
+        <v>-51360.96812000001</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>-43755.22049</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>-48072.85204</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>9765.915000000001</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>396.8297900000001</v>
+        <v>396.82979</v>
       </c>
       <c r="D56" s="47" t="n">
         <v>459.74362</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>812.5891799999999</v>
+        <v>814.0563300000001</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>1230.34434</v>
+        <v>1244.61266</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>2479.39561</v>
+        <v>2480.53135</v>
       </c>
       <c r="H56" s="47" t="n">
         <v>3616.47714</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>5278.92352</v>
+        <v>5279.23583</v>
       </c>
       <c r="J56" s="47" t="n">
         <v>5761.147</v>
@@ -2966,16 +3127,21 @@
         <v>7650.54268</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>9332.733829999999</v>
+        <v>9371.017460000001</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>11697.08492</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>11830.01641</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>18362.859</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
         <v>-372.62038</v>
@@ -2984,34 +3150,37 @@
         <v>667.83336</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-3737.18369</v>
+        <v>-3731.3302</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>-5449.9032</v>
+        <v>-5392.940030000001</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>-6102.33882</v>
+        <v>-6099.18006</v>
       </c>
       <c r="H57" s="47" t="n">
         <v>-14674.0485</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>1875.1574</v>
+        <v>886.3857999999998</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-19033.23472</v>
+        <v>-19316.68235</v>
       </c>
       <c r="K57" s="47" t="n">
         <v>-12881.02547</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-59751.13263</v>
+        <v>-60731.98558000001</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>-55452.30541</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>-59902.86845</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>-8596.944</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,11 +3194,14 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>147</v>
@@ -3038,34 +3210,37 @@
         <v>159</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="H59" s="35" t="n">
         <v>1057</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>1228</v>
+        <v>1235</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>1337</v>
+        <v>1350</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>1490</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>1544</v>
+        <v>1640</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>1677</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>1870</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>2167</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>